--- a/indexcraw/01-01-2023.xlsx
+++ b/indexcraw/01-01-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M101"/>
+  <dimension ref="A1:M71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4903,1896 +4903,6 @@
       </c>
       <c r="M71" t="inlineStr"/>
     </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>041870991</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>TRAN VAN MINH QUAN</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Chụp Xquang khớp khuỷu thẳng, nghiêng hoặc chếch</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>CR</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>CR2301010237</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>01/01/2023 19:44</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>Khoa Khám Bệnh</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>BS CKI Trần Văn Hòa</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>Đã đọc</t>
-        </is>
-      </c>
-      <c r="M72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>091905591</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>TRAN QUOC THIEN</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>US2301010349</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>01/01/2023 19:46</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>Khoa Khám Bệnh</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>BS CKI Nguyễn Quốc Khánh</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>Đã đọc</t>
-        </is>
-      </c>
-      <c r="M73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>022022501</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>PHAN TUAN KHANG</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>US2301010348</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>01/01/2023 19:34</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>Khoa Khám Bệnh</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>BS CKI Nguyễn Quốc Khánh</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>Đã đọc</t>
-        </is>
-      </c>
-      <c r="M74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>79408220112434</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>CB PHAM THI TU MI</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Chụp Xquang ngực thẳng [Tại giường]</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>CR</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>CR2301010234</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>01/01/2023 19:36</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>Hồi sức sơ sinh</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>BS CKI Trần Văn Hòa</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>Đã đọc</t>
-        </is>
-      </c>
-      <c r="M75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>79408230000269</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>NGO THI BAO TRAM</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Chụp CLVT sọ não không tiêm thuốc cản quang (từ 1-32 dãy)</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>CT</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>CT2301010020</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>545</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>01/01/2023 19:37</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>Thần Kinh</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>BS CKI Trần Văn Hòa</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>Đã đọc</t>
-        </is>
-      </c>
-      <c r="M76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>081628977</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>MAI THI QUAN</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>US2301010346</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>01/01/2023 19:33</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>Khoa Khám Bệnh</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>BS CKI Nguyễn Quốc Khánh</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>Đã đọc</t>
-        </is>
-      </c>
-      <c r="M77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>79408210125838</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>TRAN TUE QUAN</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>Siêu âm tinh hoàn hai bên</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>US2301010341</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>01/01/2023 19:32</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>Hô hấp 1</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>BS CKI Nguyễn Quốc Khánh</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>Đã đọc</t>
-        </is>
-      </c>
-      <c r="M78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>081628043</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>LE THIEN PHUC</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>Chụp Xquang ngực thẳng</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>CR</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>CR2301010236</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>01/01/2023 19:28</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Khoa Khám Bệnh</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>BS CKI Trần Văn Hòa</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>Đã đọc</t>
-        </is>
-      </c>
-      <c r="M79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>79408210107896</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>DUONG QUOC ANH</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>Chụp Xquang ngực thẳng</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>CR</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>CR2301010228</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>01/01/2023 19:31</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Nội Tổng Hợp</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>BS CKI Trần Văn Hòa</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>Đã đọc</t>
-        </is>
-      </c>
-      <c r="M80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>79408210125838</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>TRAN TUE QUAN</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>US2301010340</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>01/01/2023 19:30</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>Hô hấp 1</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>BS CKI Nguyễn Quốc Khánh</t>
-        </is>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>Đã đọc</t>
-        </is>
-      </c>
-      <c r="M81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>79408220094806</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>CB LE THI KIM LINH</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>Chụp Xquang bụng không chuẩn bị thẳng hoặc nghiêng</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>CR</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>CR2301010227</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>01/01/2023 19:29</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>Sơ sinh</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>BS CKI Trần Văn Hòa</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>Đã đọc</t>
-        </is>
-      </c>
-      <c r="M82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>101946221</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>HOANG TRUNG HIEU</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>Chụp Xquang xương đùi thẳng nghiêng</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>CR</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>CR2301010194</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>01/01/2023 19:23</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>Bỏng chỉnh trực</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>BS CKI Trần Văn Hòa</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>Đã đọc</t>
-        </is>
-      </c>
-      <c r="M83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>79408210079093</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>DAO BAO LONG</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>US2301010344</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>01/01/2023 19:21</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>Khoa Khám Bệnh</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>BS CKI Nguyễn Quốc Khánh</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>Đã đọc</t>
-        </is>
-      </c>
-      <c r="M84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>79408210264716</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>TRAN QUOC DUNG</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>Chụp Xquang ngực thẳng</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>CR</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>CR2301010232</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>01/01/2023 19:18</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>Điều trị ban ngày</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>BS CKI Trần Văn Hòa</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>Đã đọc</t>
-        </is>
-      </c>
-      <c r="M85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>051557960</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>DINH CONG TIN</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>Chụp Xquang ngực thẳng</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>CR</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>CR2301010235</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>01/01/2023 19:20</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>Nội 1</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>BS CKI Trần Văn Hòa</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>Đã đọc</t>
-        </is>
-      </c>
-      <c r="M86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>86</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>072090694</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>LE NHAT KHAC TRIEU</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>US2301010343</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>01/01/2023 19:19</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>Khoa Khám Bệnh</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>BS CKI Nguyễn Quốc Khánh</t>
-        </is>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>Đã đọc</t>
-        </is>
-      </c>
-      <c r="M87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>79408230000286</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>THIEU NGUYEN TUNG AN</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>US2301010342</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>01/01/2023 19:17</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>Khoa Khám Bệnh</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>BS CKI Nguyễn Quốc Khánh</t>
-        </is>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>Đã đọc</t>
-        </is>
-      </c>
-      <c r="M88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>88</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>79408220116839</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>NGUYEN THIEN TAM</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>Chụp Xquang khớp khuỷu thẳng, nghiêng hoặc chếch</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>CR</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>CR2301010180</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>01/01/2023 19:16</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>Bỏng chỉnh trực</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>BS CKI Trần Văn Hòa</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>Đã đọc</t>
-        </is>
-      </c>
-      <c r="M89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>121715544</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>TRAN VAN KHOA</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>US2301010338</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>01/01/2023 19:10</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>Khoa Khám Bệnh</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>BS CKI Nguyễn Quốc Khánh</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>Đã đọc</t>
-        </is>
-      </c>
-      <c r="M90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>79408210111710</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>NGUYEN TIEN DAT</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>Chụp CLVT sọ não không tiêm thuốc cản quang (từ 1-32 dãy)</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>CT</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>CT2301010008</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>1914</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>01/01/2023 19:23</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>Thận Nội Tiết</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>BS CKI Trần Nam Hưng</t>
-        </is>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>Đã đọc</t>
-        </is>
-      </c>
-      <c r="M91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>79408220073389</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>CB TRAN HOAI PHUC</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>Chụp Xquang ngực thẳng</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>CR</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>CR2301010077</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>01/01/2023 19:10</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>Thận Nội Tiết</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>BS CKI Trần Văn Hòa</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>Đã đọc</t>
-        </is>
-      </c>
-      <c r="M92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>121997877</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>PHAN DINH NGHIEM</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>US2301010336</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>01/01/2023 19:06</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>Khoa Khám Bệnh</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>BS CKI Nguyễn Quốc Khánh</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>Đã đọc</t>
-        </is>
-      </c>
-      <c r="M93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>93</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>091829368</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>TRAN NGUYEN THIEN AN</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>Chụp Xquang ngực thẳng</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>CR</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>CR2301010233</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>01/01/2023 19:04</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>Nội 1</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>BS CKI Trần Văn Hòa</t>
-        </is>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>Đã đọc</t>
-        </is>
-      </c>
-      <c r="M94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>121726039</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>LE KHAC VUONG</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>US2301010333</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>01/01/2023 18:56</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>Khoa Khám Bệnh</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>BS CKI Nguyễn Quốc Khánh</t>
-        </is>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>Đã đọc</t>
-        </is>
-      </c>
-      <c r="M95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>95</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>79408210359588</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>NGUYEN THACH ANH KHOA</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>Chụp Xquang ngực thẳng</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>CR</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>CR2301010230</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>01/01/2023 18:50</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>Khoa Khám Bệnh</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>BS CKI Trần Văn Hòa</t>
-        </is>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>Đã đọc</t>
-        </is>
-      </c>
-      <c r="M96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>79408230000281</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>TRUONG LE NGOC KHUE</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>US2301010337</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>01/01/2023 18:52</t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>Khoa Khám Bệnh</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>BS CKI Nguyễn Quốc Khánh</t>
-        </is>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>Đã đọc</t>
-        </is>
-      </c>
-      <c r="M97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>071417443</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>NGUYEN ANH TIEP</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>US2301010335</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>01/01/2023 18:51</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>Khoa Khám Bệnh</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>BS CKI Nguyễn Quốc Khánh</t>
-        </is>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>Đã đọc</t>
-        </is>
-      </c>
-      <c r="M98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>032137749</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>TRAN NGOC AN NHIEN</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>US2301010334</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>01/01/2023 18:49</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>Khoa Khám Bệnh</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>BS CKI Nguyễn Quốc Khánh</t>
-        </is>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>Đã đọc</t>
-        </is>
-      </c>
-      <c r="M99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>081626143</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>NGUYEN BAO NGOC</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>US2301010332</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>01/01/2023 18:47</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>Khoa Khám Bệnh</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>BS CKI Nguyễn Quốc Khánh</t>
-        </is>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>Đã đọc</t>
-        </is>
-      </c>
-      <c r="M100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>79408230000242</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>LE MINH QUAN</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>US2301010320</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>01/01/2023 18:45</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>Nội Tổng Hợp</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>BS CKI Nguyễn Quốc Khánh</t>
-        </is>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>Đã đọc</t>
-        </is>
-      </c>
-      <c r="M101" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/indexcraw/01-01-2023.xlsx
+++ b/indexcraw/01-01-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M71"/>
+  <dimension ref="A1:M222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4903,6 +4903,9440 @@
       </c>
       <c r="M71" t="inlineStr"/>
     </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>041870991</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>TRAN VAN MINH QUAN</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Chụp Xquang khớp khuỷu thẳng, nghiêng hoặc chếch</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>CR2301010237</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>01/01/2023 19:44</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>BS CKI Trần Văn Hòa</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>091905591</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>TRAN QUOC THIEN</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>US2301010349</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>01/01/2023 19:46</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Quốc Khánh</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>022022501</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>PHAN TUAN KHANG</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>US2301010348</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>01/01/2023 19:34</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Quốc Khánh</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>79408220112434</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>CB PHAM THI TU MI</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Chụp Xquang ngực thẳng [Tại giường]</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>CR2301010234</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>01/01/2023 19:36</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Hồi sức sơ sinh</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>BS CKI Trần Văn Hòa</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>79408230000269</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>NGO THI BAO TRAM</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Chụp CLVT sọ não không tiêm thuốc cản quang (từ 1-32 dãy)</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>CT2301010020</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>545</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>01/01/2023 19:37</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Thần Kinh</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>BS CKI Trần Văn Hòa</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>081628977</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>MAI THI QUAN</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>US2301010346</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>01/01/2023 19:33</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Quốc Khánh</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>79408210125838</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>TRAN TUE QUAN</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Siêu âm tinh hoàn hai bên</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>US2301010341</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>01/01/2023 19:32</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Hô hấp 1</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Quốc Khánh</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>081628043</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>LE THIEN PHUC</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Chụp Xquang ngực thẳng</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>CR2301010236</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>01/01/2023 19:28</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>BS CKI Trần Văn Hòa</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>79408210107896</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>DUONG QUOC ANH</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Chụp Xquang ngực thẳng</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>CR2301010228</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>01/01/2023 19:31</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Nội Tổng Hợp</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>BS CKI Trần Văn Hòa</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>79408210125838</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>TRAN TUE QUAN</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>US2301010340</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>01/01/2023 19:30</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Hô hấp 1</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Quốc Khánh</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>79408220094806</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>CB LE THI KIM LINH</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Chụp Xquang bụng không chuẩn bị thẳng hoặc nghiêng</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>CR2301010227</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>01/01/2023 19:29</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Sơ sinh</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>BS CKI Trần Văn Hòa</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>101946221</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>HOANG TRUNG HIEU</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Chụp Xquang xương đùi thẳng nghiêng</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>CR2301010194</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>01/01/2023 19:23</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Bỏng chỉnh trực</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>BS CKI Trần Văn Hòa</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>79408210079093</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>DAO BAO LONG</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>US2301010344</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>01/01/2023 19:21</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Quốc Khánh</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>79408210264716</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>TRAN QUOC DUNG</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Chụp Xquang ngực thẳng</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>CR2301010232</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>01/01/2023 19:18</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Điều trị ban ngày</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>BS CKI Trần Văn Hòa</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>051557960</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>DINH CONG TIN</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Chụp Xquang ngực thẳng</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>CR2301010235</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>01/01/2023 19:20</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Nội 1</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>BS CKI Trần Văn Hòa</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>072090694</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>LE NHAT KHAC TRIEU</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>US2301010343</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>01/01/2023 19:19</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Quốc Khánh</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>79408230000286</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>THIEU NGUYEN TUNG AN</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>US2301010342</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>01/01/2023 19:17</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Quốc Khánh</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>79408220116839</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>NGUYEN THIEN TAM</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Chụp Xquang khớp khuỷu thẳng, nghiêng hoặc chếch</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>CR2301010180</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>01/01/2023 19:16</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Bỏng chỉnh trực</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>BS CKI Trần Văn Hòa</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>121715544</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>TRAN VAN KHOA</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>US2301010338</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>01/01/2023 19:10</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Quốc Khánh</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>79408210111710</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>NGUYEN TIEN DAT</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Chụp CLVT sọ não không tiêm thuốc cản quang (từ 1-32 dãy)</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>CT2301010008</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>1914</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>01/01/2023 19:23</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>Thận Nội Tiết</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>BS CKI Trần Nam Hưng</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>79408220073389</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>CB TRAN HOAI PHUC</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Chụp Xquang ngực thẳng</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>CR2301010077</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>01/01/2023 19:10</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Thận Nội Tiết</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>BS CKI Trần Văn Hòa</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>121997877</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>PHAN DINH NGHIEM</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>US2301010336</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>01/01/2023 19:06</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Quốc Khánh</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>091829368</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>TRAN NGUYEN THIEN AN</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Chụp Xquang ngực thẳng</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>CR2301010233</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>01/01/2023 19:04</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Nội 1</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>BS CKI Trần Văn Hòa</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>121726039</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>LE KHAC VUONG</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>US2301010333</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>01/01/2023 18:56</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Quốc Khánh</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>79408210359588</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>NGUYEN THACH ANH KHOA</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Chụp Xquang ngực thẳng</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>CR2301010230</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>01/01/2023 18:50</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>BS CKI Trần Văn Hòa</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>79408230000281</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>TRUONG LE NGOC KHUE</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>US2301010337</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>01/01/2023 18:52</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Quốc Khánh</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>071417443</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>NGUYEN ANH TIEP</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>US2301010335</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>01/01/2023 18:51</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Quốc Khánh</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>032137749</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>TRAN NGOC AN NHIEN</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>US2301010334</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>01/01/2023 18:49</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Quốc Khánh</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>081626143</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>NGUYEN BAO NGOC</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>US2301010332</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>79408230000242</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>LE MINH QUAN</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>US2301010320</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>01/01/2023 18:45</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>Nội Tổng Hợp</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Quốc Khánh</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>79408230000242</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>LE MINH QUAN</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Siêu âm qua thóp</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>US2301010319</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>01/01/2023 18:44</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>Nội Tổng Hợp</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Quốc Khánh</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>79408230000249</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>NGUYEN HUY HOANG</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>US2301010308</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>01/01/2023 18:43</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>Nhiễm</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Quốc Khánh</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>032123450</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>DOI PHUC KHANG</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Chụp Xquang ngực thẳng</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>CR2301010229</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>01/01/2023 18:35</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>BS CKI Trần Văn Hòa</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>071760662</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>NGUYEN HOANG PHUC</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Chụp Xquang ngực thẳng</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>CR2301010221</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>01/01/2023 18:38</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>Hô hấp 1</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>BS CKI Trần Văn Hòa</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>79408210326941</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>NGUYEN VIET THIEN CHUONG</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>US2301010330</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>01/01/2023 18:33</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Quốc Khánh</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>071409353</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>LAM NGUYEN GIA KHANG</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>US2301010326</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>01/01/2023 18:31</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Quốc Khánh</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>092015217</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>PHAM NGOC TUYET NHI</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>US2301010328</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>01/01/2023 18:30</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Quốc Khánh</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>79408230000273</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>PHAN HOANG HAI DANG</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Chụp Xquang ngực thẳng [Tại giường]</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>CR2301010218</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>01/01/2023 18:31</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>Cấp cứu</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>BS CKI Trần Văn Hòa</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>79408230000259</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>DAO MINH HUY</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Chụp Xquang ngực thẳng [Tại giường], Chụp Xquang cột sống cổ thẳng nghiêng</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>CR2301010212</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>01/01/2023 18:31</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>Cấp cứu</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>BS CKI Trần Văn Hòa</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>CR2301010221
+CR2301010220</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>102030265</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>NGUYEN PHAM BAO KHOI</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Chụp Xquang ngực thẳng [Tại giường]</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>CR2301010226</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>01/01/2023 18:28</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>Cấp cứu</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>BS CKI Trần Văn Hòa</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>031852744</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>NGUYEN MINH TRIET</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>US2301010327</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>01/01/2023 18:26</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>PK TYC Chất Lượng Cao</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>BS CKII Huỳnh Văn Tho</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>79408220096400</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>CB BUI THANH NO</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>US2301010317</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>01/01/2023 18:19</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>Hô hấp 1</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Quốc Khánh</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>79408220116590</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>NGUYEN NGOC GIA HAN</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>US2301010138</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>01/01/2023 18:18</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>Nội Tổng Hợp</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Quốc Khánh</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>79408210317644</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>NGUYEN MINH DUY</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>US2301010325</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>01/01/2023 18:16</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>PK TYC Chất Lượng Cao</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>BS CKII Huỳnh Văn Tho</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>79408220096182</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>DO NGOC KHA HAN</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>US2301010322</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>01/01/2023 18:14</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Quốc Khánh</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>061930432</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>NGUYEN QUYNH DIEM THU</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Chụp Xquang ngực thẳng</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>CR2301010219</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>79408210071751</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>HUYNH TRUONG BAO LONG</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Chụp Xquang ngực thẳng</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>CR2301010224</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>01/01/2023 18:10</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>PK TYC Chất Lượng Cao</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>BS CKI Trần Văn Hòa</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>79408210302455</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>TRAN QUANG MINH</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>US2301010312</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>01/01/2023 18:13</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>Nội Tổng Hợp</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Quốc Khánh</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>79408220073578</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>NGUYEN CHI KIEN</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Chụp Xquang ngực thẳng</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>CR2301010217</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>01/01/2023 18:12</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>Nội 1</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>BS CKI Trần Văn Hòa</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>79408210161124</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>NGUYEN HOANG DUY NGHIA</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>US2301010321</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>01/01/2023 18:12</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Quốc Khánh</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>79408210290039</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>LE TRONG HIEU</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Chụp Xquang ngực thẳng</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>CR2301010223</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>01/01/2023 18:09</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>BS CKI Trần Văn Hòa</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>112072834</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>TRAN PHAM GIA HAN</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Chụp Xquang khớp khuỷu thẳng, nghiêng hoặc chếch</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>CR2301010225</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>01/01/2023 18:07</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>BS CKI Trần Văn Hòa</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>112072834</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>TRAN PHAM GIA HAN</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Chụp Xquang xương cẳng chân thẳng nghiêng</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>CR2301010225</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>01/01/2023 18:05</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>BS CKI Trần Văn Hòa</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>061931067</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>PHAM DANG THIEN KHOI</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Chụp Xquang khớp khuỷu thẳng, nghiêng hoặc chếch</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>CR2301010222</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>01/01/2023 18:01</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>BS CKI Trần Văn Hòa</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>071967218</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>NGUYEN CONG AN</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>US2301010314</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>01/01/2023 18:01</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Quốc Khánh</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>79408210197104</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>TRUONG HOANG YEN</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>US2301010316</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>01/01/2023 17:59</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Quốc Khánh</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>21015617</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>NGO HOAI AN</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>US2301010315</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>01/01/2023 17:57</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Quốc Khánh</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>101943532</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>LE MINH TUE</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Chụp Xquang khớp khuỷu thẳng, nghiêng hoặc chếch</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>CR2301010220</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>01/01/2023 17:51</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>BS CKI Trần Văn Hòa</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>091753732</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>NGUYEN MINH TRI</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>US2301010313</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>01/01/2023 17:53</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Quốc Khánh</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>79408220108435</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>NGUYEN QUYNH BAO NGOC</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>US2301010310</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>01/01/2023 17:51</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>PK TYC Chất Lượng Cao</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>BS CKII Huỳnh Văn Tho</t>
+        </is>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>79408220109251</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>TRAN MINH THIEN</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>US2301010311</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>01/01/2023 17:49</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>PK TYC Chất Lượng Cao</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>BS CKII Huỳnh Văn Tho</t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>79408210348482</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>NGUYEN QUOC THIEN</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Chụp Xquang ngực thẳng</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>CR2301010216</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>01/01/2023 17:42</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>PK TYC Chất Lượng Cao</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>BS CKI Trần Văn Hòa</t>
+        </is>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>051538373</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>NGUYEN CAO KY DUYEN</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>US2301010294</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>091641960</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>NGUYEN BAO TUE NHI</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Chụp Xquang ngực thẳng</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>CR2301010214</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>01/01/2023 17:37</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>BS CKI Trần Văn Hòa</t>
+        </is>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>022018150</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>NGUYEN TRAN GIA KHANH</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>US2301010307</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>01/01/2023 17:36</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>PK TYC Chất Lượng Cao</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>BS CKII Huỳnh Văn Tho</t>
+        </is>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>79408220113940</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>NGUYEN AN NHIEN</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Chụp Xquang ngực thẳng</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>CR2301010208</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>01/01/2023 17:36</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>Hô hấp 1</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>BS CKI Trần Văn Hòa</t>
+        </is>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>79408230000271</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>NGUYEN TOAN THANG</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>US2301010303</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>01/01/2023 17:30</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Quốc Khánh</t>
+        </is>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>042141467</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>NGUYEN HOANG HUY</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>US2301010306</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>01/01/2023 17:29</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>PK TYC Chất Lượng Cao</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>BS CKII Huỳnh Văn Tho</t>
+        </is>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>022118852</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>PHAM LE HOANG LAM</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>US2301010305</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>01/01/2023 17:28</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Quốc Khánh</t>
+        </is>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>071524158</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>NGUYEN LE BAO NGOC</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>US2301010304</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>01/01/2023 17:27</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Quốc Khánh</t>
+        </is>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>041605433</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>TONG BAO LINH</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Chụp CLVT sọ não không tiêm thuốc cản quang (từ 1-32 dãy)</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>CT2301010015</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>643</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>01/01/2023 17:24</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>PK TYC Chất Lượng Cao</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>BS CKI Trần Văn Hòa</t>
+        </is>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>79408210228979</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>NGUYEN BA THINH</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Siêu âm tinh hoàn hai bên</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>US2301010301</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>01/01/2023 17:20</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>Ung bướu huyết học</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Quốc Khánh</t>
+        </is>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>79408210228979</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>NGUYEN BA THINH</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>US2301010300</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>01/01/2023 17:16</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>Ung bướu huyết học</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Quốc Khánh</t>
+        </is>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>79408220089744</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>NGUYEN KHANH LINH</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>US2301010291</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>01/01/2023 17:09</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>Ung bướu huyết học</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Quốc Khánh</t>
+        </is>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>091740527</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>NGUYEN THUY TRANG</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>US2301010302</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>01/01/2023 17:07</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>PK TYC Chất Lượng Cao</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>BS CKII Huỳnh Văn Tho</t>
+        </is>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>021646478</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>TRAN NGUYEN KIM NGAN</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>US2301010298</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>01/01/2023 16:56</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Quốc Khánh</t>
+        </is>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>012110433</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>HOANG MINH THIEN</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>US2301010296</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>01/01/2023 16:53</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Quốc Khánh</t>
+        </is>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>012008046</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>NGUYEN MINH PHUC</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>US2301010295</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>01/01/2023 16:52</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Quốc Khánh</t>
+        </is>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>79408230000255</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>DUONG KHIET AN</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>US2301010293</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>01/01/2023 16:44</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>PK TYC Chất Lượng Cao</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>BS CKII Huỳnh Văn Tho</t>
+        </is>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>011905758</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>HUYNH PHUC TOAN</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Chụp Xquang ngực thẳng</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>CR2301010205</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>79408220091203</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>LE PHAN BAO NGOC</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Chụp Xquang xương bàn, ngón chân thẳng, nghiêng hoặc chếch</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>CR2301010211</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>01/01/2023 16:31</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>BS CKI Trần Văn Hòa</t>
+        </is>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>79408230000227</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>BUI MINH QUOC</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Siêu âm phần mềm (da, tổ chức dưới da, cơ..)</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>US2301010283</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>01/01/2023 16:32</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>Nhiễm</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Quốc Khánh</t>
+        </is>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>79408230000247</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>THIEU QUANG KHOI</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>US2301010292</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>01/01/2023 16:32</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>PK TYC Chất Lượng Cao</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>BS CKII Huỳnh Văn Tho</t>
+        </is>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>20116436</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>MAI NGUYEN THANH AN</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Chụp Xquang ngực thẳng</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>CR2301010199</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>01/01/2023 16:31</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>Nội Tổng Hợp</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>BS CKI Trần Văn Hòa</t>
+        </is>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>79408230000227</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>BUI MINH QUOC</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Chụp Xquang ngực thẳng</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>CR2301010202</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>01/01/2023 16:27</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>Nhiễm</t>
+        </is>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>BS CKI Trần Văn Hòa</t>
+        </is>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>79408230000245</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>LE VAN GIA HUY</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>US2301010290</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>01/01/2023 16:29</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>PK TYC Chất Lượng Cao</t>
+        </is>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>BS CKII Huỳnh Văn Tho</t>
+        </is>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>091732051</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>NGUYEN THE LUC</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Chụp Xquang ngực thẳng</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>CR2301010210</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>01/01/2023 16:26</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>BS CKI Trần Văn Hòa</t>
+        </is>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>79408230000246</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>VI NGOC KHANH AN</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>US2301010289</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>01/01/2023 16:26</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>PK TYC Chất Lượng Cao</t>
+        </is>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>BS CKII Huỳnh Văn Tho</t>
+        </is>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>79408220115327</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>NGUYEN MINH KHANG</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Chụp Xquang ngực thẳng</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>CR2301010209</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>01/01/2023 16:21</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>BS CKI Trần Văn Hòa</t>
+        </is>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>21057533</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>PHAM NGUYEN GIA PHUC</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Chụp Xquang ngực thẳng</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>CR2301010193</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>01/01/2023 16:16</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>Nội 3</t>
+        </is>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>BS CKI Trần Văn Hòa</t>
+        </is>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>79408220094806</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>CB LE THI KIM LINH</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Chụp Xquang bụng không chuẩn bị thẳng hoặc nghiêng</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>CR2301010227</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>01/01/2023 19:29</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>Sơ sinh</t>
+        </is>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>BS CKI Trần Văn Hòa</t>
+        </is>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>79408220040480</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>HO MINH ANH</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Chụp Xquang ngực thẳng</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>CR2301010203</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>01/01/2023 16:11</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>PK TYC Chất Lượng Cao</t>
+        </is>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>BS CKI Trần Văn Hòa</t>
+        </is>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>072078465</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>LE HONG ANH</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Chụp Xquang ngực thẳng</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>CR2301010206</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>01/01/2023 16:11</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>PK TYC Chất Lượng Cao</t>
+        </is>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>BS CKI Trần Văn Hòa</t>
+        </is>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>121997814</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>BUI HUU THINH</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>US2301010288</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>01/01/2023 16:13</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Quốc Khánh</t>
+        </is>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>79408230000230</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>BAN DO PHAT DAT</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Chụp CLVT sọ não không tiêm thuốc cản quang (từ 1-32 dãy)</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>CT2301010014</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>639</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>01/01/2023 16:13</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>BS CKI Trần Văn Hòa</t>
+        </is>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>022020763</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>TRUONG TRAN PHUONG ANH</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Chụp Xquang ngực thẳng</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>CR2301010204</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>01/01/2023 16:07</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>Hô Hấp 2</t>
+        </is>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>BS CKI Trần Văn Hòa</t>
+        </is>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>79408230000241</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>VO HOANG KHA KY</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>US2301010287</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>01/01/2023 16:04</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>PK TYC Chất Lượng Cao</t>
+        </is>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>BS CKII Huỳnh Văn Tho</t>
+        </is>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>79408220116883</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>CB NGUYEN THI CAM TU</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Chụp Xquang ngực thẳng [Tại giường]</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>CR2301010201</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>01/01/2023 16:03</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>Hồi sức sơ sinh</t>
+        </is>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>BS CKI Trần Văn Hòa</t>
+        </is>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>79408220116880</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>CB NGUYEN THI HOA</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Chụp Xquang ngực thẳng [Tại giường]</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>CR2301010200</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>01/01/2023 16:02</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>Hồi sức sơ sinh</t>
+        </is>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>BS CKI Trần Văn Hòa</t>
+        </is>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>79408220105751</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>NGUYEN HUYNH AN NHIEN</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Chụp Xquang bụng không chuẩn bị thẳng hoặc nghiêng</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>CR2301010196</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>01/01/2023 16:02</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>Hồi sức TC &amp; CĐ</t>
+        </is>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>BS CKI Trần Văn Hòa</t>
+        </is>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>79408230000240</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>THANG NGUYEN</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>US2301010285</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>01/01/2023 16:01</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Quốc Khánh</t>
+        </is>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>79408220110665</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>BUI PHUC HAN</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Chụp Xquang ngực thẳng</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>CR2301010192</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>01/01/2023 16:01</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>Hồi sức TC &amp; CĐ</t>
+        </is>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>BS CKI Trần Văn Hòa</t>
+        </is>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>79408210150053</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>HA CONG BACH</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>US2301010282</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>01/01/2023 16:01</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>PK TYC Chất Lượng Cao</t>
+        </is>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>BS CKII Huỳnh Văn Tho</t>
+        </is>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>79408220116842</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>HUYNH MINH TRIET</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Chụp Xquang ngực thẳng</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>CR2301010185</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>01/01/2023 16:01</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>Gan mật tụy</t>
+        </is>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>BS CKI Trần Văn Hòa</t>
+        </is>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>011905758</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>HUYNH PHUC TOAN</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>US2301010286</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>01/01/2023 16:00</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Quốc Khánh</t>
+        </is>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>79408220077430</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>NGUYEN PHU THANH</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>US2301010284</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>01/01/2023 15:58</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>PK TYC Chất Lượng Cao</t>
+        </is>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>BS CKII Huỳnh Văn Tho</t>
+        </is>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>092015644</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>NGUYEN NGOC GIA HAN</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Chụp Xquang ngực thẳng</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>CR2301010174</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>01/01/2023 15:52</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>Nội 3</t>
+        </is>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>BS CKI Trần Văn Hòa</t>
+        </is>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>79408220080315</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>TA MINH TRUONG</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>US2301010140</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>01/01/2023 15:54</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>Thần Kinh</t>
+        </is>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Thị Hồng Ngọc</t>
+        </is>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>092015644</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>NGUYEN NGOC GIA HAN</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>US2301010237</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>01/01/2023 15:51</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>Nội 3</t>
+        </is>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Thị Hồng Ngọc</t>
+        </is>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>79408210194579</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>NGUYEN NGOC MINH</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Chụp Xquang ngực thẳng</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>CR2301010198</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>01/01/2023 15:47</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>PK TYC Chất Lượng Cao</t>
+        </is>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>BS CKI Trần Văn Hòa</t>
+        </is>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>012003274</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>HUYNH THAI GIA BAO</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>US2301010280</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>01/01/2023 15:49</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>PK TYC Chất Lượng Cao</t>
+        </is>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>BS CKII Huỳnh Văn Tho</t>
+        </is>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>042151136</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>DIEU MINH TRI</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>US2301010250</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>01/01/2023 15:47</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>Ung bướu huyết học</t>
+        </is>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Thị Hồng Ngọc</t>
+        </is>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>79408210348253</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>CAO XUAN NGHI</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>US2301010276</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>01/01/2023 15:47</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>PK TYC Chất Lượng Cao</t>
+        </is>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>BS CKII Huỳnh Văn Tho</t>
+        </is>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>021828644</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>PHAM NGO THIEN NHAN</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>US2301010269</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>01/01/2023 15:50</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Thị Hồng Ngọc</t>
+        </is>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>79408220114946</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>LE DANG KHOA</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Chụp Xquang ngực thẳng</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>CR2301010131</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>01/01/2023 15:46</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>Thần Kinh</t>
+        </is>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>BS CKI Trần Văn Hòa</t>
+        </is>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>031574135</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>DO TRUNG KIEN</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>US2301010277</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>01/01/2023 15:41</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>PK TYC Chất Lượng Cao</t>
+        </is>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>BS CKII Huỳnh Văn Tho</t>
+        </is>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>79408210272377</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>NGUYEN HOANG PHUC</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>US2301010266</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>01/01/2023 15:38</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>Thận Nội Tiết</t>
+        </is>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Thị Hồng Ngọc</t>
+        </is>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>79408210128538</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>NGUYEN NHA LINH</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Chụp Xquang ngực thẳng</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>CR2301010118</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>01/01/2023 15:40</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>Thần Kinh</t>
+        </is>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>BS CKI Trần Văn Hòa</t>
+        </is>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>79408210194579</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>NGUYEN NGOC MINH</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>US2301010279</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>01/01/2023 15:39</t>
+        </is>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>PK TYC Chất Lượng Cao</t>
+        </is>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>BS CKII Huỳnh Văn Tho</t>
+        </is>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>79408230000225</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>PHAM NGOC BAO NGAN</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Chụp Xquang ngực thẳng</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>CR2301010197</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>01/01/2023 15:36</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>BS CKI Trần Văn Hòa</t>
+        </is>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>071480384</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>HONG PHUC KHANG</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Siêu âm phần mềm (da, tổ chức dưới da, cơ..)</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>US2301010278</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>01/01/2023 15:36</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Thị Hồng Ngọc</t>
+        </is>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>79408220115746</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>NGUYEN QUANG KHAI</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Chụp Xquang ngực thẳng</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>CR2301010129</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>01/01/2023 15:36</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>Thần Kinh</t>
+        </is>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>BS CKI Trần Văn Hòa</t>
+        </is>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>21049345</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>TRAN KHA ANH</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Chụp Xquang ngực thẳng</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>CR2301010195</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>01/01/2023 15:32</t>
+        </is>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>PK TYC Chất Lượng Cao</t>
+        </is>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>BS CKI Trần Văn Hòa</t>
+        </is>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>79408210126457</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>NGUYEN BA HUNG</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>US2301010274</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>01/01/2023 15:33</t>
+        </is>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Thị Hồng Ngọc</t>
+        </is>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>012014323</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>TRAN NGUYEN GIA HAN</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>US2301010275</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>01/01/2023 15:25</t>
+        </is>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Thị Hồng Ngọc</t>
+        </is>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>79408220105437</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>NGUYEN HUNG BACH</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Chụp Xquang ngực thẳng</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>CR2301010147</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>01/01/2023 15:31</t>
+        </is>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>Nội Tổng Hợp</t>
+        </is>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>BS CKI Trần Văn Hòa</t>
+        </is>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>79408220080564</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>VU NGUYEN MINH THU</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Chụp Xquang ngực thẳng</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>CR2301010189</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>01/01/2023 15:25</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>Nội 2</t>
+        </is>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>BS CKI Trần Văn Hòa</t>
+        </is>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>051895408</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>DANG QUOC KHANH</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>US2301010272</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>01/01/2023 15:21</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Thị Hồng Ngọc</t>
+        </is>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>79408220084904</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>HUYNH AN NHIEN</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>US2301010260</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>01/01/2023 15:19</t>
+        </is>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>Ung bướu huyết học</t>
+        </is>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Thị Hồng Ngọc</t>
+        </is>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>051453681</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>VY DOAN BAO NGOC</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Siêu âm phần mềm (da, tổ chức dưới da, cơ..)</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>US2301010271</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>01/01/2023 15:16</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Thị Hồng Ngọc</t>
+        </is>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>79408220116856</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>DO MINH TRIET</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>Siêu âm tim Doppler</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>US2301010010</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>01/01/2023 15:13</t>
+        </is>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>Nội Tổng Hợp</t>
+        </is>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>BS Trương Nhật Vi</t>
+        </is>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>121498232</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>DOAN KHAI AN</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>US2301010270</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>01/01/2023 15:12</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Thị Hồng Ngọc</t>
+        </is>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>79408220115864</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>DANG NGUYEN THANH BINH</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>Chụp Xquang ngực thẳng</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>CR2301010181</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>01/01/2023 15:08</t>
+        </is>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>Nội Tổng Hợp</t>
+        </is>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>BS CKI Trần Văn Hòa</t>
+        </is>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>021930679</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>NGO BINH AN</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>Chụp Xquang ngực thẳng</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>CR2301010175</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>01/01/2023 15:10</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>Nội 2</t>
+        </is>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>BS CKI Trần Văn Hòa</t>
+        </is>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>20102254</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>NGUYEN LAC THIEN</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>Chụp Xquang ngực thẳng</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>CR2301010178</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>01/01/2023 15:05</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>Nội 3</t>
+        </is>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>BS CKI Trần Văn Hòa</t>
+        </is>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>79408220115864</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>DANG NGUYEN THANH BINH</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>US2301010229</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>01/01/2023 15:07</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>Nội Tổng Hợp</t>
+        </is>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Thị Hồng Ngọc</t>
+        </is>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>20102254</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>NGUYEN LAC THIEN</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>Siêu âm phần mềm (da, tổ chức dưới da, cơ..)</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>US2301010246</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>01/01/2023 15:04</t>
+        </is>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>Nội 3</t>
+        </is>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Thị Hồng Ngọc</t>
+        </is>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>20102254</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>NGUYEN LAC THIEN</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>US2301010244</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>01/01/2023 15:03</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>Nội 3</t>
+        </is>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Thị Hồng Ngọc</t>
+        </is>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>79408220100610</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>VU TRAN NAM PHONG</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>Chụp CLVT sọ não không tiêm thuốc cản quang (từ 1-32 dãy)</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>CT2301010012</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>01/01/2023 15:05</t>
+        </is>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>Ung bướu huyết học</t>
+        </is>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>BS CKI Trần Văn Hòa</t>
+        </is>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>79408220113843</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>HA TRAN ANH MINH</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>Chụp Xquang ngực thẳng</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>CR2301010126</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>01/01/2023 15:01</t>
+        </is>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>Hô hấp 1</t>
+        </is>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>BS CKI Trần Văn Hòa</t>
+        </is>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>111992811</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>CAO PHUONG UYEN</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>US2301010268</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>01/01/2023 14:58</t>
+        </is>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Thị Hồng Ngọc</t>
+        </is>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>79408220071809</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>THI KIM TU</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>Chụp CLVT sọ não không tiêm thuốc cản quang (từ 1-32 dãy)</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>CT2301010013</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>832</t>
+        </is>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>01/01/2023 15:03</t>
+        </is>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>BS CKI Trần Văn Hòa</t>
+        </is>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>111983381</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>HUYNH HOANG NAM</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>Siêu âm ổ bụng ( gan mật, tụy, lách, thận, bàng quang, dạ dày, ruột non, đại tràng)</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>US2301010264</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>01/01/2023 14:52</t>
+        </is>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>Khoa Khám Bệnh</t>
+        </is>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Thị Hồng Ngọc</t>
+        </is>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>79408220087949</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>CB PHAM THI NHU Y</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>Chụp Xquang ngực thẳng</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>CR2301010049</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>01/01/2023 14:50</t>
+        </is>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>Tim mạch</t>
+        </is>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>BS CKI Trần Văn Hòa</t>
+        </is>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>79408220098931</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>CB Y MU</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>Chụp Xquang ngực thẳng [Tại giường]</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>CR2301010113</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>01/01/2023 14:49</t>
+        </is>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>Hồi sức sơ sinh</t>
+        </is>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>BS CKI Trần Văn Hòa</t>
+        </is>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>79408210237156</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>MA DUY TUAN</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>Siêu âm phần mềm (da, tổ chức dưới da, cơ..)</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>US2301010092</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>01/01/2023 14:50</t>
+        </is>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>Ung bướu huyết học</t>
+        </is>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>BS CKI Nguyễn Thị Hồng Ngọc</t>
+        </is>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>79408220067914</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>CB NGUYEN THI ANH HONG</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>Chụp Xquang ngực thẳng [Tại giường]</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>CR2301010121</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>01/01/2023 14:49</t>
+        </is>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>Tim mạch</t>
+        </is>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>BS CKI Trần Văn Hòa</t>
+        </is>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>79408220107433</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>NGUYEN NGOC TU LINH</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>Chụp Xquang ngực thẳng</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>CR2301010171</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>01/01/2023 14:49</t>
+        </is>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>Tim mạch</t>
+        </is>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>BS CKI Trần Văn Hòa</t>
+        </is>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>79408220038846</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>CB VO THI NUA</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>Chụp Xquang ngực thẳng</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>CR2301010079</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>01/01/2023 14:48</t>
+        </is>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>Tim mạch</t>
+        </is>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>BS CKI Trần Văn Hòa</t>
+        </is>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>79408220101762</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>NGUYEN TUAN LOC</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>Chụp Xquang ngực thẳng</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>CR2301010024</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>01/01/2023 14:48</t>
+        </is>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>Tim mạch</t>
+        </is>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>BS CKI Trần Văn Hòa</t>
+        </is>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>79408220094017</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>TRAN KHANH VY</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>Chụp Xquang ngực thẳng</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>CR</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>CR2301010191</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>01/01/2023 14:49</t>
+        </is>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>Nội Tổng Hợp</t>
+        </is>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>BS CKI Trần Văn Hòa</t>
+        </is>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>Đã đọc</t>
+        </is>
+      </c>
+      <c r="M222" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
